--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_218__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_218__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5420,7 +5420,7 @@
                   <c:v>87.59901428222656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.71932983398438</c:v>
+                  <c:v>92.71934509277344</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>96.77418518066406</c:v>
@@ -5471,7 +5471,7 @@
                   <c:v>16.69942855834961</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.34432983398438</c:v>
+                  <c:v>97.34434509277344</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>79.116943359375</c:v>
@@ -5480,7 +5480,7 @@
                   <c:v>51.78327941894531</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63.87994766235352</c:v>
+                  <c:v>63.87994003295898</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>59.74363708496094</c:v>
@@ -5504,7 +5504,7 @@
                   <c:v>67.78413391113281</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98.14303588867188</c:v>
+                  <c:v>98.14302062988281</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52.9971923828125</c:v>
@@ -5513,16 +5513,16 @@
                   <c:v>78.66047668457031</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>96.90834045410156</c:v>
+                  <c:v>96.90835571289062</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84.57475280761719</c:v>
+                  <c:v>84.57473754882812</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>84.41526794433594</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.50235748291016</c:v>
+                  <c:v>41.50235366821289</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>89.60690307617188</c:v>
@@ -5552,7 +5552,7 @@
                   <c:v>90.91352844238281</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>95.92727661132812</c:v>
+                  <c:v>95.92729187011719</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>83.81063842773438</c:v>
@@ -5570,13 +5570,13 @@
                   <c:v>86.09663391113281</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>97.62202453613281</c:v>
+                  <c:v>97.62203979492188</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>74.38034820556641</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>88.35269165039062</c:v>
+                  <c:v>88.35270690917969</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>55.62998580932617</c:v>
@@ -5591,7 +5591,7 @@
                   <c:v>51.54661560058594</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>96.97470092773438</c:v>
+                  <c:v>96.97471618652344</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>47.73086547851562</c:v>
@@ -5603,10 +5603,10 @@
                   <c:v>97.47373962402344</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.56101989746094</c:v>
+                  <c:v>96.56100463867188</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>96.98228454589844</c:v>
+                  <c:v>96.9822998046875</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>86.09587097167969</c:v>
@@ -5615,7 +5615,7 @@
                   <c:v>95.55412292480469</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.92518615722656</c:v>
+                  <c:v>89.9251708984375</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>97.320068359375</c:v>
@@ -6411,7 +6411,7 @@
         <v>93.9058</v>
       </c>
       <c r="F3">
-        <v>92.71932983398438</v>
+        <v>92.71934509277344</v>
       </c>
       <c r="G3">
         <v>103</v>
@@ -6811,7 +6811,7 @@
         <v>97.7124</v>
       </c>
       <c r="F20">
-        <v>97.34432983398438</v>
+        <v>97.34434509277344</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>63.87994766235352</v>
+        <v>63.87994003295898</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>97.9363</v>
       </c>
       <c r="F31">
-        <v>98.14303588867188</v>
+        <v>98.14302062988281</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>97.2676</v>
       </c>
       <c r="F34">
-        <v>96.90834045410156</v>
+        <v>96.90835571289062</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>86.1662</v>
       </c>
       <c r="F35">
-        <v>84.57475280761719</v>
+        <v>84.57473754882812</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>41.50235748291016</v>
+        <v>41.50235366821289</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>96.2886</v>
       </c>
       <c r="F47">
-        <v>95.92727661132812</v>
+        <v>95.92729187011719</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>97.62202453613281</v>
+        <v>97.62203979492188</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>88.35269165039062</v>
+        <v>88.35270690917969</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>97.3549</v>
       </c>
       <c r="F60">
-        <v>96.97470092773438</v>
+        <v>96.97471618652344</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>96.90470000000001</v>
       </c>
       <c r="F64">
-        <v>96.56101989746094</v>
+        <v>96.56100463867188</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>97.21169999999999</v>
       </c>
       <c r="F65">
-        <v>96.98228454589844</v>
+        <v>96.9822998046875</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.94750000000001</v>
       </c>
       <c r="F68">
-        <v>89.92518615722656</v>
+        <v>89.9251708984375</v>
       </c>
     </row>
     <row r="69" spans="1:6">
